--- a/July 3.2022.xlsx
+++ b/July 3.2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44dcdd243a9cba09/Desktop/Financial Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{BDD5F48E-42B4-4E47-9753-F4FA43A7019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE300BE4-5007-4857-8725-4A93846B4660}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="8_{BDD5F48E-42B4-4E47-9753-F4FA43A7019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFFFD93-7177-447F-A5A9-6E1E6EAB2A0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5405FC81-BB93-4DBC-88B7-50D1C9410A64}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>Stocks</t>
   </si>
@@ -393,9 +393,6 @@
     <t xml:space="preserve">Consistent growth in dividends. </t>
   </si>
   <si>
-    <t>Rounded</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
   </si>
   <si>
     <t>Constant growth.  Undervalued ?</t>
-  </si>
-  <si>
-    <t>Stocks_a</t>
   </si>
 </sst>
 </file>
@@ -976,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821B49FC-87A8-4F33-ACBC-5E3EF7B955D7}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -993,14 +987,13 @@
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="13.19921875" customWidth="1"/>
     <col min="12" max="12" width="92.09765625" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="1"/>
-    <col min="18" max="18" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1037,26 +1030,21 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,28 +1079,21 @@
         <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="M2" s="1">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="1">
+      <c r="O2" s="1">
         <v>34.369999999999997</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="0">(144/(N2*P2*P2))</f>
-        <v>5.5409055466534669E-3</v>
-      </c>
-      <c r="R2">
-        <f>ROUND(Q2,2)</f>
+      <c r="P2">
+        <f>ROUND((144/(M2*O2*O2)),2)</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1150,28 +1131,21 @@
       <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="1">
+      <c r="O3" s="1">
         <v>3.74</v>
       </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>0.85790271383225136</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R51" si="1">ROUND(Q3,2)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P51" si="0">ROUND((144/(M3*O3*O3)),2)</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1209,28 +1183,21 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="1">
+      <c r="O4" s="1">
         <v>11.05</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>4.3679149348566433E-2</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
+      <c r="P4">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,28 +1235,21 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="1">
+      <c r="O5" s="1">
         <v>1.02</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>34.602076124567475</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
+      <c r="P5">
+        <f t="shared" si="0"/>
         <v>34.6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1327,28 +1287,21 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <v>92</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="1">
+      <c r="O6" s="1">
         <v>21</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>3.5492457852706301E-3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,22 +1339,15 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" t="e">
+      <c r="P7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1439,25 +1385,18 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="M8" s="1">
         <v>21</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" t="e">
+      <c r="P8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,28 +1431,21 @@
         <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
         <v>-1</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="M9" s="1">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="1">
+      <c r="O9" s="1">
         <v>1.04</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>14.792899408284025</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
+      <c r="P9">
+        <f t="shared" si="0"/>
         <v>14.79</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1551,28 +1483,21 @@
       <c r="L10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="M10" s="1">
         <v>27</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="1">
+      <c r="O10" s="1">
         <v>11.09</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>4.3364629044056566E-2</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
+      <c r="P10">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1610,28 +1535,21 @@
       <c r="L11" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="1">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="1">
+      <c r="O11" s="1">
         <v>2.13</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0.99186669311644526</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
+      <c r="P11">
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1669,28 +1587,21 @@
       <c r="L12" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12" s="1">
         <v>66</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="1">
+      <c r="O12" s="1">
         <v>1.93</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0.58573872635995117</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
+      <c r="P12">
+        <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1728,28 +1639,21 @@
       <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="1">
         <v>27</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="1">
+      <c r="O13" s="1">
         <v>4.47</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0.2669215767724844</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
+      <c r="P13">
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1787,28 +1691,21 @@
       <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="M14" s="1">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="1">
+      <c r="O14" s="1">
         <v>8.69</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>3.6670733383090084E-2</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
+      <c r="P14">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1846,25 +1743,18 @@
       <c r="L15" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="1">
+      <c r="O15" s="1">
         <v>6.25</v>
       </c>
-      <c r="Q15" t="e">
+      <c r="P15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1902,28 +1792,21 @@
       <c r="L16" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="M16" s="1">
         <v>19</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="1">
+      <c r="O16" s="1">
         <v>5.94</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0.2148008527593854</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
+      <c r="P16">
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1958,28 +1841,21 @@
         <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
         <v>-1</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="M17" s="1">
         <v>16</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="1">
+      <c r="O17" s="1">
         <v>4.66</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0.41444859916373478</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
+      <c r="P17">
+        <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2017,28 +1893,21 @@
       <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="M18" s="1">
         <v>27</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="1">
+      <c r="O18" s="1">
         <v>2.21</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>1.0919787337141609</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
+      <c r="P18">
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2076,25 +1945,18 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="1">
+      <c r="O19" s="1">
         <v>2.16</v>
       </c>
-      <c r="Q19" t="e">
+      <c r="P19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2132,28 +1994,21 @@
       <c r="L20" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="M20" s="1">
         <v>12</v>
       </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="1">
+      <c r="O20" s="1">
         <v>3.58</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0.93630036515714232</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
+      <c r="P20">
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2191,28 +2046,21 @@
       <c r="L21" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="M21" s="1">
         <v>86</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="1">
+      <c r="O21" s="1">
         <v>4.28</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>9.140637854021981E-2</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="1"/>
+      <c r="P21">
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2248,28 +2096,21 @@
         <v>3</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="M22" s="1">
         <v>13</v>
       </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>72</v>
       </c>
-      <c r="P22" s="1">
+      <c r="O22" s="1">
         <v>1.89</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>3.1009554819078629</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="1"/>
+      <c r="P22">
+        <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2307,28 +2148,21 @@
       <c r="L23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="M23" s="1">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="1">
+      <c r="O23" s="1">
         <v>3.66</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>1.1944220490310251</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
+      <c r="P23">
+        <f t="shared" si="0"/>
         <v>1.19</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2366,28 +2200,21 @@
       <c r="L24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="M24" s="1">
         <v>39</v>
       </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>69</v>
       </c>
-      <c r="P24" s="1">
+      <c r="O24" s="1">
         <v>6.4</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>9.0144230769230754E-2</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
+      <c r="P24">
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2425,25 +2252,18 @@
       <c r="L25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="1">
+      <c r="O25" s="1">
         <v>5.56</v>
       </c>
-      <c r="Q25" t="e">
+      <c r="P25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2481,28 +2301,21 @@
       <c r="L26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="M26" s="1">
         <v>26</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="1">
+      <c r="O26" s="1">
         <v>5.58</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>0.17787738911568254</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="1"/>
+      <c r="P26">
+        <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -2540,25 +2353,18 @@
       <c r="L27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>73</v>
       </c>
-      <c r="P27" s="1">
+      <c r="O27" s="1">
         <v>1.21</v>
       </c>
-      <c r="Q27" t="e">
+      <c r="P27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -2596,28 +2402,21 @@
       <c r="L28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="M28" s="1">
         <v>13</v>
       </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="1">
+      <c r="O28" s="1">
         <v>3.4</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>0.95821133883417642</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
+      <c r="P28">
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2655,28 +2454,21 @@
       <c r="L29" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="M29" s="1">
         <v>6</v>
       </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>100</v>
       </c>
-      <c r="P29" s="1">
+      <c r="O29" s="1">
         <v>1.47</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>11.106483409690407</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
+      <c r="P29">
+        <f t="shared" si="0"/>
         <v>11.11</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2714,28 +2506,21 @@
       <c r="L30" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="M30" s="1">
         <v>38</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="1">
+      <c r="O30" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>0.88437855824185563</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
+      <c r="P30">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2773,28 +2558,21 @@
       <c r="L31" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="M31" s="1">
         <v>10</v>
       </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>73</v>
       </c>
-      <c r="P31" s="1">
+      <c r="O31" s="1">
         <v>1.42</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>7.1414401904384057</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
+      <c r="P31">
+        <f t="shared" si="0"/>
         <v>7.14</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -2832,28 +2610,21 @@
       <c r="L32" t="s">
         <v>81</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="M32" s="1">
         <v>0.89</v>
       </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>73</v>
       </c>
-      <c r="P32" s="1">
+      <c r="O32" s="1">
         <v>1.18</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>116.20062683782588</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
+      <c r="P32">
+        <f t="shared" si="0"/>
         <v>116.2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -2891,28 +2662,21 @@
       <c r="L33" t="s">
         <v>83</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="M33" s="1">
         <v>4.87</v>
       </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>67</v>
       </c>
-      <c r="P33" s="1">
+      <c r="O33" s="1">
         <v>1.76</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>9.5457090976971504</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="1"/>
+      <c r="P33">
+        <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -2950,28 +2714,21 @@
       <c r="L34" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="M34" s="1">
         <v>7.35</v>
       </c>
-      <c r="O34" t="s">
+      <c r="N34" t="s">
         <v>72</v>
       </c>
-      <c r="P34" s="1">
+      <c r="O34" s="1">
         <v>1.3</v>
       </c>
-      <c r="Q34">
-        <f t="shared" ref="Q34:Q51" si="2">(144/(N34*P34*P34))</f>
-        <v>11.59280280159401</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="1"/>
+      <c r="P34">
+        <f t="shared" si="0"/>
         <v>11.59</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,28 +2766,21 @@
       <c r="L35" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="M35" s="1">
         <v>8.7100000000000009</v>
       </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>72</v>
       </c>
-      <c r="P35" s="1">
+      <c r="O35" s="1">
         <v>2.19</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>3.447117660251652</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="1"/>
+      <c r="P35">
+        <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
@@ -3068,28 +2818,21 @@
       <c r="L36" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="M36" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="O36" t="s">
+      <c r="N36" t="s">
         <v>72</v>
       </c>
-      <c r="P36" s="1">
+      <c r="O36" s="1">
         <v>1.03</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="2"/>
-        <v>16.197352137859259</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="1"/>
+      <c r="P36">
+        <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -3127,28 +2870,21 @@
       <c r="L37" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="M37" s="1">
         <v>13.8</v>
       </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>72</v>
       </c>
-      <c r="P37" s="1">
+      <c r="O37" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="2"/>
-        <v>2.4352453053036602</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="1"/>
+      <c r="P37">
+        <f t="shared" si="0"/>
         <v>2.44</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
@@ -3186,28 +2922,21 @@
       <c r="L38" t="s">
         <v>93</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="M38" s="1">
         <v>9.01</v>
       </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>72</v>
       </c>
-      <c r="P38" s="1">
+      <c r="O38" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="2"/>
-        <v>12.297816215285575</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="1"/>
+      <c r="P38">
+        <f t="shared" si="0"/>
         <v>12.3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
@@ -3245,28 +2974,21 @@
       <c r="L39" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="M39" s="1">
         <v>4.6900000000000004</v>
       </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="1">
+      <c r="O39" s="1">
         <v>3.74</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="2"/>
-        <v>2.1950602486113038</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="1"/>
+      <c r="P39">
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -3304,28 +3026,21 @@
       <c r="L40" t="s">
         <v>99</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="M40" s="1">
         <v>17.71</v>
       </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>100</v>
       </c>
-      <c r="P40" s="1">
+      <c r="O40" s="1">
         <v>5.18</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="2"/>
-        <v>0.30302915264185326</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="1"/>
+      <c r="P40">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -3363,25 +3078,18 @@
       <c r="L41" t="s">
         <v>102</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>103</v>
       </c>
-      <c r="P41" s="1">
+      <c r="O41" s="1">
         <v>2.08</v>
       </c>
-      <c r="Q41" t="e">
-        <f t="shared" si="2"/>
+      <c r="P41" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3419,25 +3127,18 @@
       <c r="L42" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="1">
+      <c r="O42" s="1">
         <v>3.05</v>
       </c>
-      <c r="Q42" t="e">
-        <f t="shared" si="2"/>
+      <c r="P42" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3475,28 +3176,21 @@
       <c r="L43" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N43" s="1">
+      <c r="M43" s="1">
         <v>12</v>
       </c>
-      <c r="O43" t="s">
+      <c r="N43" t="s">
         <v>73</v>
       </c>
-      <c r="P43" s="1">
+      <c r="O43" s="1">
         <v>0.9</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="2"/>
-        <v>14.814814814814813</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="1"/>
+      <c r="P43">
+        <f t="shared" si="0"/>
         <v>14.81</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3531,25 +3225,18 @@
         <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
         <v>-1</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="N44" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="1">
+      <c r="O44" s="1">
         <v>36</v>
       </c>
-      <c r="Q44" t="e">
-        <f t="shared" si="2"/>
+      <c r="P44" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3587,376 +3274,327 @@
       <c r="L45" t="s">
         <v>111</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="M45" s="1">
         <v>23</v>
       </c>
-      <c r="O45" t="s">
+      <c r="N45" t="s">
         <v>64</v>
       </c>
-      <c r="P45" s="1">
+      <c r="O45" s="1">
         <v>6</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="2"/>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="1"/>
+      <c r="P45">
+        <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="1">
+        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
         <v>113</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="M46" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="N46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="1">
+        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="N47" t="s">
+        <v>67</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="1">
+        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="1">
+        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M49" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>67</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>111.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N50" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>61.69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
         <v>4</v>
       </c>
-      <c r="L46" t="s">
-        <v>114</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N46" s="1">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="O46" t="s">
-        <v>67</v>
-      </c>
-      <c r="P46" s="1">
-        <v>1.38</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="2"/>
-        <v>7.9260342483939894</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="1"/>
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K47" s="1">
-        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
-        <v>2</v>
-      </c>
-      <c r="L47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N47" s="1">
-        <v>5.63</v>
-      </c>
-      <c r="O47" t="s">
-        <v>67</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="2"/>
-        <v>28.340459450017963</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="1"/>
-        <v>28.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K48" s="1">
-        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
-        <v>3</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N48" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O48" t="s">
-        <v>67</v>
-      </c>
-      <c r="P48" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="2"/>
-        <v>10.265915733941684</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="1"/>
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K49" s="1">
-        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
-        <v>2</v>
-      </c>
-      <c r="L49" t="s">
-        <v>119</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N49" s="1">
-        <v>5.36</v>
-      </c>
-      <c r="O49" t="s">
-        <v>67</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="2"/>
-        <v>111.89367614240335</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="1"/>
-        <v>111.89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
-        <v>2</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N50" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="O50" t="s">
-        <v>67</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="2"/>
-        <v>61.686746987951807</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="1"/>
-        <v>61.69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="L51" t="s">
         <v>121</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>-1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <f>Table1[[#This Row],[Assets]]+Table1[[#This Row],[Dividends]]+Table1[[#This Row],[Equity]]+Table1[[#This Row],[Total Revenue]]+Table1[[#This Row],[Net Income]]+Table1[[#This Row],[CFO]]+Table1[[#This Row],[Net Cash Flow]]+Table1[[#This Row],[Quick Ratio(CA/CL)]]+Table1[[#This Row],[Debt/Equity]]</f>
-        <v>4</v>
-      </c>
-      <c r="L51" t="s">
-        <v>122</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N51" s="1">
+      <c r="M51" s="1">
         <v>3.91</v>
       </c>
-      <c r="O51" t="s">
+      <c r="N51" t="s">
         <v>103</v>
       </c>
-      <c r="P51" s="1">
+      <c r="O51" s="1">
         <v>0.62</v>
       </c>
-      <c r="Q51">
-        <f t="shared" si="2"/>
-        <v>95.808128255147693</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="1"/>
+      <c r="P51">
+        <f t="shared" si="0"/>
         <v>95.81</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
